--- a/data/trans_orig/P2405-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2405-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7DF33BC-4444-47FE-9B50-F511AC6FF0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29EEE7C0-6C51-42DC-B2D9-D13A979999C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7BBA3DAC-AACF-4AC2-8C8C-8AA28AA19468}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1F03B7C-8FA0-475A-B49E-F65523483759}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="256">
   <si>
     <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2007 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>5,58%</t>
+    <t>5,78%</t>
   </si>
   <si>
     <t>1,43%</t>
@@ -88,16 +88,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,9%</t>
+    <t>5,15%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,7 +106,7 @@
     <t>97,99%</t>
   </si>
   <si>
-    <t>94,42%</t>
+    <t>94,22%</t>
   </si>
   <si>
     <t>99,52%</t>
@@ -115,7 +115,7 @@
     <t>98,57%</t>
   </si>
   <si>
-    <t>95,1%</t>
+    <t>94,85%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -124,10 +124,10 @@
     <t>98,25%</t>
   </si>
   <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -142,664 +142,670 @@
     <t>0,22%</t>
   </si>
   <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2015 (Tasa respuesta: 45,97%)</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2015 (Tasa respuesta: 45,97%)</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>98,67%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>99,4%</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD6F87D-65FE-4379-AF89-2156C2A02087}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DA0EFA-E61D-4940-A637-41762F3B3735}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1803,10 +1809,10 @@
         <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1818,10 +1824,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1830,13 +1836,13 @@
         <v>5816</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,13 +1857,13 @@
         <v>228919</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>139</v>
@@ -1869,7 +1875,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -1881,10 +1887,10 @@
         <v>373885</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>56</v>
@@ -1943,7 +1949,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1958,10 +1964,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1973,10 +1979,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1988,10 +1994,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,7 +2015,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -2024,7 +2030,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -2039,7 +2045,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2104,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2113,10 +2119,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2128,10 +2134,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2143,10 +2149,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,7 +2170,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -2179,7 +2185,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -2194,7 +2200,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -2265,13 +2271,13 @@
         <v>14683</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2280,13 +2286,13 @@
         <v>5023</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -2295,13 +2301,13 @@
         <v>19706</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2322,13 @@
         <v>1370598</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H23" s="7">
         <v>841</v>
@@ -2331,13 +2337,13 @@
         <v>858307</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>2177</v>
@@ -2346,10 +2352,10 @@
         <v>2228906</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>56</v>
@@ -2408,7 +2414,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2430,7 +2436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A79D7F9-CB74-4633-8FAA-4147113D7B59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F6689-596B-48F6-92FE-B07840378EBC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2447,7 +2453,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2554,13 +2560,13 @@
         <v>9669</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2569,13 +2575,13 @@
         <v>2967</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -2584,13 +2590,13 @@
         <v>12636</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,13 +2611,13 @@
         <v>155476</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H5" s="7">
         <v>139</v>
@@ -2620,13 +2626,13 @@
         <v>144263</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M5" s="7">
         <v>294</v>
@@ -2742,10 +2748,10 @@
         <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,13 +2766,13 @@
         <v>334885</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H8" s="7">
         <v>232</v>
@@ -2775,10 +2781,10 @@
         <v>246505</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -2790,13 +2796,13 @@
         <v>581389</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,13 +2870,13 @@
         <v>5032</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2882,10 +2888,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2894,13 +2900,13 @@
         <v>5032</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2921,13 @@
         <v>320298</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>234</v>
@@ -2933,7 +2939,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -2945,13 +2951,13 @@
         <v>568537</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,7 +3031,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3037,10 +3043,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3049,13 +3055,13 @@
         <v>1047</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,10 +3076,10 @@
         <v>278735</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -3088,7 +3094,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -3100,10 +3106,10 @@
         <v>518186</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -3162,7 +3168,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3177,10 +3183,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3192,10 +3198,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3207,10 +3213,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,7 +3234,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -3243,7 +3249,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -3258,7 +3264,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -3317,7 +3323,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3332,10 +3338,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3347,10 +3353,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3362,10 +3368,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,7 +3389,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -3398,7 +3404,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -3413,7 +3419,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -3484,13 +3490,13 @@
         <v>30027</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3499,13 +3505,13 @@
         <v>3872</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -3514,13 +3520,13 @@
         <v>33898</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3541,13 @@
         <v>1324069</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="H23" s="7">
         <v>891</v>
@@ -3550,13 +3556,13 @@
         <v>969317</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M23" s="7">
         <v>2131</v>
@@ -3565,13 +3571,13 @@
         <v>2293386</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,7 +3633,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3649,7 +3655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6567A52F-A8E8-45B4-B593-8CDA96D7A4E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D4896D-0D1D-4F16-B887-531728710DBE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3666,7 +3672,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3773,13 +3779,13 @@
         <v>4018</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3791,10 +3797,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3803,13 +3809,13 @@
         <v>4018</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3830,13 @@
         <v>146488</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -3842,7 +3848,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -3854,13 +3860,13 @@
         <v>270597</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3934,13 @@
         <v>8633</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3943,13 +3949,13 @@
         <v>2863</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3958,13 +3964,13 @@
         <v>11497</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3985,13 @@
         <v>302403</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H8" s="7">
         <v>277</v>
@@ -3994,13 +4000,13 @@
         <v>269998</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>564</v>
@@ -4009,13 +4015,13 @@
         <v>572400</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4089,13 @@
         <v>4885</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4098,13 +4104,13 @@
         <v>1866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -4113,13 +4119,13 @@
         <v>6751</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4140,13 @@
         <v>347024</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>319</v>
@@ -4149,10 +4155,10 @@
         <v>315924</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -4164,13 +4170,13 @@
         <v>662948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4244,13 @@
         <v>6516</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4256,10 +4262,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4268,13 +4274,13 @@
         <v>6516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4295,13 @@
         <v>399351</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>305</v>
@@ -4307,7 +4313,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -4319,13 +4325,13 @@
         <v>731755</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,7 +4387,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4396,10 +4402,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4411,10 +4417,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4426,10 +4432,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,7 +4453,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -4462,7 +4468,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4477,7 +4483,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -4536,7 +4542,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4551,7 +4557,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>49</v>
@@ -4566,10 +4572,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4581,10 +4587,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,7 +4623,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4632,7 +4638,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -4703,13 +4709,13 @@
         <v>24052</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4718,13 +4724,13 @@
         <v>4729</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -4733,10 +4739,10 @@
         <v>28781</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>246</v>
@@ -4760,7 +4766,7 @@
         <v>248</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="H23" s="7">
         <v>1249</v>
@@ -4769,13 +4775,13 @@
         <v>1300101</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M23" s="7">
         <v>2992</v>
@@ -4784,13 +4790,13 @@
         <v>3145737</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>58</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,7 +4852,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2405-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2405-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29EEE7C0-6C51-42DC-B2D9-D13A979999C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54567206-7BBE-4EFB-BC1C-E8D455AC0AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1F03B7C-8FA0-475A-B49E-F65523483759}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66176F50-4DF4-4CC6-87AE-8C43DCDF89FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="260">
   <si>
     <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2007 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,48%</t>
+    <t>0,71%</t>
   </si>
   <si>
     <t>5,78%</t>
@@ -88,724 +88,736 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,15%</t>
+    <t>4,83%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2016 (Tasa respuesta: 45,97%)</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>99,36%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2015 (Tasa respuesta: 45,97%)</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DA0EFA-E61D-4940-A637-41762F3B3735}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4DAA1C-9F39-4868-8958-6C8876736C52}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1809,10 +1821,10 @@
         <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1824,10 +1836,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1836,13 +1848,13 @@
         <v>5816</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,13 +1869,13 @@
         <v>228919</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>139</v>
@@ -1875,7 +1887,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -1887,13 +1899,13 @@
         <v>373885</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,7 +1961,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1964,10 +1976,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1979,10 +1991,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1994,10 +2006,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,7 +2027,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -2030,7 +2042,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -2045,7 +2057,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -2104,7 +2116,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2119,10 +2131,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2134,10 +2146,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2149,10 +2161,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,7 +2182,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -2185,7 +2197,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -2200,7 +2212,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -2271,13 +2283,13 @@
         <v>14683</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2286,13 +2298,13 @@
         <v>5023</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -2301,13 +2313,13 @@
         <v>19706</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2334,13 @@
         <v>1370598</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="H23" s="7">
         <v>841</v>
@@ -2337,13 +2349,13 @@
         <v>858307</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>2177</v>
@@ -2352,13 +2364,13 @@
         <v>2228906</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,7 +2426,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F6689-596B-48F6-92FE-B07840378EBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62AC710-3085-4790-BF78-FA3D3C7831F0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2453,7 +2465,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2560,13 +2572,13 @@
         <v>9669</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2575,13 +2587,13 @@
         <v>2967</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -2590,13 +2602,13 @@
         <v>12636</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,13 +2623,13 @@
         <v>155476</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H5" s="7">
         <v>139</v>
@@ -2626,13 +2638,13 @@
         <v>144263</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
         <v>294</v>
@@ -2641,13 +2653,13 @@
         <v>299739</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2727,13 @@
         <v>14279</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2730,13 +2742,13 @@
         <v>904</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -2745,13 +2757,13 @@
         <v>15183</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2778,13 @@
         <v>334885</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>232</v>
@@ -2781,10 +2793,10 @@
         <v>246505</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -2796,13 +2808,13 @@
         <v>581389</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2882,13 @@
         <v>5032</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2888,10 +2900,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2900,13 +2912,13 @@
         <v>5032</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2933,13 @@
         <v>320298</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>234</v>
@@ -2939,7 +2951,7 @@
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -2951,13 +2963,13 @@
         <v>568537</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3037,13 @@
         <v>1047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3043,10 +3055,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3055,13 +3067,13 @@
         <v>1047</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,10 +3088,10 @@
         <v>278735</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -3094,7 +3106,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -3106,10 +3118,10 @@
         <v>518186</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -3168,7 +3180,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3183,10 +3195,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3198,10 +3210,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3213,10 +3225,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,7 +3246,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -3249,7 +3261,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -3264,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -3323,7 +3335,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3338,10 +3350,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3353,10 +3365,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3368,10 +3380,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,7 +3401,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -3404,7 +3416,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -3419,7 +3431,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -3490,13 +3502,13 @@
         <v>30027</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3505,13 +3517,13 @@
         <v>3872</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -3520,13 +3532,13 @@
         <v>33898</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3553,13 @@
         <v>1324069</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="H23" s="7">
         <v>891</v>
@@ -3556,13 +3568,13 @@
         <v>969317</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M23" s="7">
         <v>2131</v>
@@ -3571,13 +3583,13 @@
         <v>2293386</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,7 +3645,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3655,7 +3667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D4896D-0D1D-4F16-B887-531728710DBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1F90E0-A906-4CB3-A414-59558C15A054}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3672,7 +3684,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3779,13 +3791,13 @@
         <v>4018</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3797,10 +3809,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3809,13 +3821,13 @@
         <v>4018</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3842,13 @@
         <v>146488</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
@@ -3848,7 +3860,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -3860,13 +3872,13 @@
         <v>270597</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3946,13 @@
         <v>8633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3949,13 +3961,13 @@
         <v>2863</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3964,13 +3976,13 @@
         <v>11497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3997,13 @@
         <v>302403</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>277</v>
@@ -4000,13 +4012,13 @@
         <v>269998</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>564</v>
@@ -4015,13 +4027,13 @@
         <v>572400</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4101,13 @@
         <v>4885</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4104,13 +4116,13 @@
         <v>1866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -4119,13 +4131,13 @@
         <v>6751</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4152,13 @@
         <v>347024</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>319</v>
@@ -4155,10 +4167,10 @@
         <v>315924</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
@@ -4170,10 +4182,10 @@
         <v>662948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>43</v>
@@ -4244,13 +4256,13 @@
         <v>6516</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4262,10 +4274,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4274,13 +4286,13 @@
         <v>6516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4307,13 @@
         <v>399351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>305</v>
@@ -4313,7 +4325,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -4325,13 +4337,13 @@
         <v>731755</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,7 +4399,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4402,10 +4414,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4417,10 +4429,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4432,10 +4444,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,7 +4465,7 @@
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -4468,7 +4480,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -4483,7 +4495,7 @@
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -4542,7 +4554,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4557,7 +4569,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>49</v>
@@ -4572,10 +4584,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4587,10 +4599,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,7 +4635,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4638,7 +4650,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -4709,13 +4721,13 @@
         <v>24052</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4724,13 +4736,13 @@
         <v>4729</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -4739,13 +4751,13 @@
         <v>28781</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4772,13 @@
         <v>1845636</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H23" s="7">
         <v>1249</v>
@@ -4775,13 +4787,13 @@
         <v>1300101</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M23" s="7">
         <v>2992</v>
@@ -4790,13 +4802,13 @@
         <v>3145737</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,7 +4864,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2405-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2405-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54567206-7BBE-4EFB-BC1C-E8D455AC0AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16E3F160-BB43-4F96-91AE-E0D1371893C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66176F50-4DF4-4CC6-87AE-8C43DCDF89FD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B8062C5-E7FA-41FC-B1C2-890A7D48110C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="260">
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2007 (Tasa respuesta: 33,7%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="212">
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -70,754 +70,610 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2016 (Tasa respuesta: 99,7%)</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
   </si>
   <si>
     <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2016 (Tasa respuesta: 45,97%)</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4DAA1C-9F39-4868-8958-6C8876736C52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C9CD01-3E4C-43CA-ABCE-050F5AA93F18}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1398,10 +1254,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>203</v>
+        <v>495</v>
       </c>
       <c r="D5" s="7">
-        <v>201916</v>
+        <v>488874</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1413,10 +1269,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>176</v>
+        <v>487</v>
       </c>
       <c r="I5" s="7">
-        <v>166464</v>
+        <v>465067</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1428,10 +1284,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>379</v>
+        <v>982</v>
       </c>
       <c r="N5" s="7">
-        <v>368380</v>
+        <v>953941</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1449,10 +1305,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>206</v>
+        <v>498</v>
       </c>
       <c r="D6" s="7">
-        <v>206064</v>
+        <v>493022</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1464,10 +1320,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>178</v>
+        <v>489</v>
       </c>
       <c r="I6" s="7">
-        <v>168886</v>
+        <v>467489</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1479,10 +1335,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>384</v>
+        <v>987</v>
       </c>
       <c r="N6" s="7">
-        <v>374950</v>
+        <v>960511</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1553,10 +1409,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>383</v>
+        <v>700</v>
       </c>
       <c r="D8" s="7">
-        <v>396080</v>
+        <v>732576</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1568,10 +1424,10 @@
         <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>224</v>
+        <v>590</v>
       </c>
       <c r="I8" s="7">
-        <v>232892</v>
+        <v>624476</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -1583,10 +1439,10 @@
         <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>607</v>
+        <v>1290</v>
       </c>
       <c r="N8" s="7">
-        <v>628972</v>
+        <v>1357052</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1604,10 +1460,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>386</v>
+        <v>703</v>
       </c>
       <c r="D9" s="7">
-        <v>398993</v>
+        <v>735489</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1619,10 +1475,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>225</v>
+        <v>591</v>
       </c>
       <c r="I9" s="7">
-        <v>233910</v>
+        <v>625494</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1634,10 +1490,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>611</v>
+        <v>1294</v>
       </c>
       <c r="N9" s="7">
-        <v>632902</v>
+        <v>1360982</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1708,10 +1564,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>325</v>
+        <v>611</v>
       </c>
       <c r="D11" s="7">
-        <v>339167</v>
+        <v>636862</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>56</v>
@@ -1723,10 +1579,10 @@
         <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>246</v>
+        <v>657</v>
       </c>
       <c r="I11" s="7">
-        <v>255878</v>
+        <v>688161</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>58</v>
@@ -1738,10 +1594,10 @@
         <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>571</v>
+        <v>1268</v>
       </c>
       <c r="N11" s="7">
-        <v>595045</v>
+        <v>1325023</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>60</v>
@@ -1759,10 +1615,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>327</v>
+        <v>613</v>
       </c>
       <c r="D12" s="7">
-        <v>340973</v>
+        <v>638668</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1774,10 +1630,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>247</v>
+        <v>658</v>
       </c>
       <c r="I12" s="7">
-        <v>257461</v>
+        <v>689744</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1789,10 +1645,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>574</v>
+        <v>1271</v>
       </c>
       <c r="N12" s="7">
-        <v>598434</v>
+        <v>1328412</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1821,10 +1677,10 @@
         <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1836,10 +1692,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1848,13 +1704,13 @@
         <v>5816</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,49 +1719,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>214</v>
+        <v>479</v>
       </c>
       <c r="D14" s="7">
-        <v>228919</v>
+        <v>513331</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
-        <v>139</v>
+        <v>502</v>
       </c>
       <c r="I14" s="7">
-        <v>144966</v>
+        <v>515642</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="7">
-        <v>353</v>
+        <v>981</v>
       </c>
       <c r="N14" s="7">
-        <v>373885</v>
+        <v>1028973</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,10 +1770,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>219</v>
+        <v>484</v>
       </c>
       <c r="D15" s="7">
-        <v>234735</v>
+        <v>519147</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1929,10 +1785,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>139</v>
+        <v>502</v>
       </c>
       <c r="I15" s="7">
-        <v>144966</v>
+        <v>515642</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1944,10 +1800,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>358</v>
+        <v>986</v>
       </c>
       <c r="N15" s="7">
-        <v>379701</v>
+        <v>1034789</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1961,7 +1817,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1976,10 +1832,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1991,10 +1847,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2006,10 +1862,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,46 +1874,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="D17" s="7">
-        <v>128691</v>
+        <v>386710</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="7">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="I17" s="7">
-        <v>46888</v>
+        <v>403986</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="7">
-        <v>176</v>
+        <v>788</v>
       </c>
       <c r="N17" s="7">
-        <v>175578</v>
+        <v>790696</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -2069,10 +1925,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="D18" s="7">
-        <v>128691</v>
+        <v>386710</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2084,10 +1940,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="I18" s="7">
-        <v>46888</v>
+        <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2099,10 +1955,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>176</v>
+        <v>788</v>
       </c>
       <c r="N18" s="7">
-        <v>175578</v>
+        <v>790696</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2116,7 +1972,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2131,10 +1987,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2146,10 +2002,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2161,10 +2017,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,46 +2029,46 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>80</v>
+        <v>523</v>
       </c>
       <c r="D20" s="7">
-        <v>75826</v>
+        <v>502466</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="7">
-        <v>11</v>
+        <v>661</v>
       </c>
       <c r="I20" s="7">
-        <v>11220</v>
+        <v>676842</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>91</v>
+        <v>1184</v>
       </c>
       <c r="N20" s="7">
-        <v>87046</v>
+        <v>1179308</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -2224,10 +2080,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>80</v>
+        <v>523</v>
       </c>
       <c r="D21" s="7">
-        <v>75826</v>
+        <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2239,10 +2095,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>11</v>
+        <v>661</v>
       </c>
       <c r="I21" s="7">
-        <v>11220</v>
+        <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2254,10 +2110,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>91</v>
+        <v>1184</v>
       </c>
       <c r="N21" s="7">
-        <v>87046</v>
+        <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2283,13 +2139,13 @@
         <v>14683</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2298,13 +2154,13 @@
         <v>5023</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -2313,13 +2169,13 @@
         <v>19706</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,49 +2184,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1336</v>
+        <v>3200</v>
       </c>
       <c r="D23" s="7">
-        <v>1370598</v>
+        <v>3260818</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H23" s="7">
-        <v>841</v>
+        <v>3293</v>
       </c>
       <c r="I23" s="7">
-        <v>858307</v>
+        <v>3374175</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M23" s="7">
-        <v>2177</v>
+        <v>6493</v>
       </c>
       <c r="N23" s="7">
-        <v>2228906</v>
+        <v>6634992</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,10 +2235,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>1349</v>
+        <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>1385281</v>
+        <v>3275501</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2394,10 +2250,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>845</v>
+        <v>3297</v>
       </c>
       <c r="I24" s="7">
-        <v>863330</v>
+        <v>3379198</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2409,10 +2265,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>2194</v>
+        <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>2248612</v>
+        <v>6654698</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2426,7 +2282,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +2304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62AC710-3085-4790-BF78-FA3D3C7831F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570F8E2E-D793-4CBA-93AE-95331724A337}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2465,7 +2321,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2572,13 +2428,13 @@
         <v>9669</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2587,13 +2443,13 @@
         <v>2967</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -2602,13 +2458,13 @@
         <v>12636</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,49 +2473,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>155</v>
+        <v>435</v>
       </c>
       <c r="D5" s="7">
-        <v>155476</v>
+        <v>443537</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H5" s="7">
-        <v>139</v>
+        <v>416</v>
       </c>
       <c r="I5" s="7">
-        <v>144263</v>
+        <v>425325</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="M5" s="7">
-        <v>294</v>
+        <v>851</v>
       </c>
       <c r="N5" s="7">
-        <v>299739</v>
+        <v>868862</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,10 +2524,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>165</v>
+        <v>445</v>
       </c>
       <c r="D6" s="7">
-        <v>165145</v>
+        <v>453206</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2683,10 +2539,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>142</v>
+        <v>419</v>
       </c>
       <c r="I6" s="7">
-        <v>147230</v>
+        <v>428292</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2698,10 +2554,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>307</v>
+        <v>864</v>
       </c>
       <c r="N6" s="7">
-        <v>312375</v>
+        <v>881498</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2727,13 +2583,13 @@
         <v>14279</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2742,13 +2598,13 @@
         <v>904</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -2757,13 +2613,13 @@
         <v>15183</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,49 +2628,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>324</v>
+        <v>654</v>
       </c>
       <c r="D8" s="7">
-        <v>334885</v>
+        <v>672808</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
-        <v>232</v>
+        <v>569</v>
       </c>
       <c r="I8" s="7">
-        <v>246505</v>
+        <v>608226</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>556</v>
+        <v>1223</v>
       </c>
       <c r="N8" s="7">
-        <v>581389</v>
+        <v>1281035</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,10 +2679,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>337</v>
+        <v>667</v>
       </c>
       <c r="D9" s="7">
-        <v>349164</v>
+        <v>687087</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2838,10 +2694,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>233</v>
+        <v>570</v>
       </c>
       <c r="I9" s="7">
-        <v>247409</v>
+        <v>609130</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2853,10 +2709,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>570</v>
+        <v>1237</v>
       </c>
       <c r="N9" s="7">
-        <v>596572</v>
+        <v>1296218</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2882,13 +2738,13 @@
         <v>5032</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2900,10 +2756,10 @@
         <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2912,13 +2768,13 @@
         <v>5032</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,49 +2783,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>305</v>
+        <v>645</v>
       </c>
       <c r="D11" s="7">
-        <v>320298</v>
+        <v>675801</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
-        <v>234</v>
+        <v>666</v>
       </c>
       <c r="I11" s="7">
-        <v>248239</v>
+        <v>709864</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M11" s="7">
-        <v>539</v>
+        <v>1311</v>
       </c>
       <c r="N11" s="7">
-        <v>568537</v>
+        <v>1385665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,10 +2834,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>310</v>
+        <v>650</v>
       </c>
       <c r="D12" s="7">
-        <v>325330</v>
+        <v>680833</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2993,10 +2849,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>234</v>
+        <v>666</v>
       </c>
       <c r="I12" s="7">
-        <v>248239</v>
+        <v>709864</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3008,10 +2864,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>544</v>
+        <v>1316</v>
       </c>
       <c r="N12" s="7">
-        <v>573569</v>
+        <v>1390697</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3037,13 +2893,13 @@
         <v>1047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3055,10 +2911,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3067,13 +2923,13 @@
         <v>1047</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,46 +2938,46 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>246</v>
+        <v>547</v>
       </c>
       <c r="D14" s="7">
-        <v>278735</v>
+        <v>613570</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>206</v>
+        <v>538</v>
       </c>
       <c r="I14" s="7">
-        <v>239450</v>
+        <v>615185</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="7">
-        <v>452</v>
+        <v>1085</v>
       </c>
       <c r="N14" s="7">
-        <v>518186</v>
+        <v>1228754</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>26</v>
@@ -3133,10 +2989,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>247</v>
+        <v>548</v>
       </c>
       <c r="D15" s="7">
-        <v>279782</v>
+        <v>614617</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3148,10 +3004,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>206</v>
+        <v>538</v>
       </c>
       <c r="I15" s="7">
-        <v>239450</v>
+        <v>615185</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3163,10 +3019,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>453</v>
+        <v>1086</v>
       </c>
       <c r="N15" s="7">
-        <v>519233</v>
+        <v>1229801</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3180,7 +3036,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3195,10 +3051,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3210,10 +3066,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3225,10 +3081,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,46 +3093,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>142</v>
+        <v>393</v>
       </c>
       <c r="D17" s="7">
-        <v>156369</v>
+        <v>429429</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="7">
-        <v>60</v>
+        <v>406</v>
       </c>
       <c r="I17" s="7">
-        <v>67829</v>
+        <v>447800</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="7">
-        <v>202</v>
+        <v>799</v>
       </c>
       <c r="N17" s="7">
-        <v>224198</v>
+        <v>877229</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -3288,10 +3144,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>142</v>
+        <v>393</v>
       </c>
       <c r="D18" s="7">
-        <v>156369</v>
+        <v>429429</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3303,10 +3159,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>60</v>
+        <v>406</v>
       </c>
       <c r="I18" s="7">
-        <v>67829</v>
+        <v>447800</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3318,10 +3174,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>202</v>
+        <v>799</v>
       </c>
       <c r="N18" s="7">
-        <v>224198</v>
+        <v>877229</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3335,7 +3191,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3350,10 +3206,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3365,10 +3221,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3380,10 +3236,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,46 +3248,46 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>68</v>
+        <v>504</v>
       </c>
       <c r="D20" s="7">
-        <v>78306</v>
+        <v>559637</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="7">
-        <v>20</v>
+        <v>694</v>
       </c>
       <c r="I20" s="7">
-        <v>23031</v>
+        <v>742975</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>88</v>
+        <v>1198</v>
       </c>
       <c r="N20" s="7">
-        <v>101337</v>
+        <v>1302612</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -3443,10 +3299,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>68</v>
+        <v>504</v>
       </c>
       <c r="D21" s="7">
-        <v>78306</v>
+        <v>559637</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3458,10 +3314,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>20</v>
+        <v>694</v>
       </c>
       <c r="I21" s="7">
-        <v>23031</v>
+        <v>742975</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3473,10 +3329,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>88</v>
+        <v>1198</v>
       </c>
       <c r="N21" s="7">
-        <v>101337</v>
+        <v>1302612</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3502,13 +3358,13 @@
         <v>30027</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3517,13 +3373,13 @@
         <v>3872</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -3532,13 +3388,13 @@
         <v>33898</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,49 +3403,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1240</v>
+        <v>3178</v>
       </c>
       <c r="D23" s="7">
-        <v>1324069</v>
+        <v>3394781</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
-        <v>891</v>
+        <v>3289</v>
       </c>
       <c r="I23" s="7">
-        <v>969317</v>
+        <v>3549374</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
-        <v>2131</v>
+        <v>6467</v>
       </c>
       <c r="N23" s="7">
-        <v>2293386</v>
+        <v>6944156</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,10 +3454,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>1269</v>
+        <v>3207</v>
       </c>
       <c r="D24" s="7">
-        <v>1354096</v>
+        <v>3424808</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3613,10 +3469,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>895</v>
+        <v>3293</v>
       </c>
       <c r="I24" s="7">
-        <v>973189</v>
+        <v>3553246</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -3628,10 +3484,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>2164</v>
+        <v>6500</v>
       </c>
       <c r="N24" s="7">
-        <v>2327284</v>
+        <v>6978054</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3645,7 +3501,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +3523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1F90E0-A906-4CB3-A414-59558C15A054}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6839C556-2EC4-4585-B43B-E626DA5B46CA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3684,7 +3540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3791,13 +3647,13 @@
         <v>4018</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3809,10 +3665,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3821,13 +3677,13 @@
         <v>4018</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,49 +3692,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>137</v>
+        <v>387</v>
       </c>
       <c r="D5" s="7">
-        <v>146488</v>
+        <v>413248</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
-        <v>126</v>
+        <v>403</v>
       </c>
       <c r="I5" s="7">
-        <v>124108</v>
+        <v>394262</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M5" s="7">
-        <v>263</v>
+        <v>790</v>
       </c>
       <c r="N5" s="7">
-        <v>270597</v>
+        <v>807509</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>141</v>
+        <v>391</v>
       </c>
       <c r="D6" s="7">
-        <v>150506</v>
+        <v>417266</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3902,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>126</v>
+        <v>403</v>
       </c>
       <c r="I6" s="7">
-        <v>124108</v>
+        <v>394262</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3917,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>267</v>
+        <v>794</v>
       </c>
       <c r="N6" s="7">
-        <v>274615</v>
+        <v>811527</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3946,13 +3802,13 @@
         <v>8633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3961,13 +3817,13 @@
         <v>2863</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3976,13 +3832,13 @@
         <v>11497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>202</v>
+        <v>50</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,49 +3847,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>287</v>
+        <v>556</v>
       </c>
       <c r="D8" s="7">
-        <v>302403</v>
+        <v>579031</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="H8" s="7">
-        <v>277</v>
+        <v>575</v>
       </c>
       <c r="I8" s="7">
-        <v>269998</v>
+        <v>559752</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="M8" s="7">
-        <v>564</v>
+        <v>1131</v>
       </c>
       <c r="N8" s="7">
-        <v>572400</v>
+        <v>1138781</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>295</v>
+        <v>564</v>
       </c>
       <c r="D9" s="7">
-        <v>311036</v>
+        <v>587664</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4057,10 +3913,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>280</v>
+        <v>578</v>
       </c>
       <c r="I9" s="7">
-        <v>272861</v>
+        <v>562615</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4072,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>575</v>
+        <v>1142</v>
       </c>
       <c r="N9" s="7">
-        <v>583897</v>
+        <v>1150278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4101,13 +3957,13 @@
         <v>4885</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4116,13 +3972,13 @@
         <v>1866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>216</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -4131,13 +3987,13 @@
         <v>6751</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,49 +4002,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>327</v>
+        <v>632</v>
       </c>
       <c r="D11" s="7">
-        <v>347024</v>
+        <v>663140</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H11" s="7">
-        <v>319</v>
+        <v>660</v>
       </c>
       <c r="I11" s="7">
-        <v>315924</v>
+        <v>656687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>222</v>
+        <v>44</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>646</v>
+        <v>1292</v>
       </c>
       <c r="N11" s="7">
-        <v>662948</v>
+        <v>1319827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>637</v>
       </c>
       <c r="D12" s="7">
-        <v>351909</v>
+        <v>668025</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4212,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>321</v>
+        <v>662</v>
       </c>
       <c r="I12" s="7">
-        <v>317790</v>
+        <v>658553</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4227,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>653</v>
+        <v>1299</v>
       </c>
       <c r="N12" s="7">
-        <v>669699</v>
+        <v>1326578</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4256,13 +4112,13 @@
         <v>6516</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4274,10 +4130,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -4286,13 +4142,13 @@
         <v>6516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,49 +4157,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>357</v>
+        <v>574</v>
       </c>
       <c r="D14" s="7">
-        <v>399351</v>
+        <v>636815</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7">
-        <v>305</v>
+        <v>600</v>
       </c>
       <c r="I14" s="7">
-        <v>332404</v>
+        <v>646961</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="7">
-        <v>662</v>
+        <v>1174</v>
       </c>
       <c r="N14" s="7">
-        <v>731755</v>
+        <v>1283776</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>363</v>
+        <v>580</v>
       </c>
       <c r="D15" s="7">
-        <v>405867</v>
+        <v>643331</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4367,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>305</v>
+        <v>600</v>
       </c>
       <c r="I15" s="7">
-        <v>332404</v>
+        <v>646961</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4382,10 +4238,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>668</v>
+        <v>1180</v>
       </c>
       <c r="N15" s="7">
-        <v>738271</v>
+        <v>1290292</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4399,7 +4255,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4414,10 +4270,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4429,10 +4285,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4444,10 +4300,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,46 +4312,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>272</v>
+        <v>423</v>
       </c>
       <c r="D17" s="7">
-        <v>305749</v>
+        <v>476880</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="7">
-        <v>156</v>
+        <v>432</v>
       </c>
       <c r="I17" s="7">
-        <v>183523</v>
+        <v>495740</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="7">
-        <v>428</v>
+        <v>855</v>
       </c>
       <c r="N17" s="7">
-        <v>489273</v>
+        <v>972620</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -4507,10 +4363,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>272</v>
+        <v>423</v>
       </c>
       <c r="D18" s="7">
-        <v>305749</v>
+        <v>476880</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4522,10 +4378,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>156</v>
+        <v>432</v>
       </c>
       <c r="I18" s="7">
-        <v>183523</v>
+        <v>495740</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4537,10 +4393,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>428</v>
+        <v>855</v>
       </c>
       <c r="N18" s="7">
-        <v>489273</v>
+        <v>972620</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4554,7 +4410,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4569,10 +4425,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4584,10 +4440,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4599,10 +4455,10 @@
         <v>15</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,46 +4467,46 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>363</v>
+        <v>625</v>
       </c>
       <c r="D20" s="7">
-        <v>344620</v>
+        <v>589518</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="7">
-        <v>66</v>
+        <v>654</v>
       </c>
       <c r="I20" s="7">
-        <v>74144</v>
+        <v>776646</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>429</v>
+        <v>1279</v>
       </c>
       <c r="N20" s="7">
-        <v>418764</v>
+        <v>1366163</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -4662,10 +4518,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>363</v>
+        <v>625</v>
       </c>
       <c r="D21" s="7">
-        <v>344620</v>
+        <v>589518</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4677,10 +4533,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>66</v>
+        <v>654</v>
       </c>
       <c r="I21" s="7">
-        <v>74144</v>
+        <v>776646</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4692,10 +4548,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>429</v>
+        <v>1279</v>
       </c>
       <c r="N21" s="7">
-        <v>418764</v>
+        <v>1366163</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4721,13 +4577,13 @@
         <v>24052</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4736,13 +4592,13 @@
         <v>4729</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>37</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -4751,13 +4607,13 @@
         <v>28781</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,49 +4622,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1743</v>
+        <v>3197</v>
       </c>
       <c r="D23" s="7">
-        <v>1845636</v>
+        <v>3358631</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="H23" s="7">
-        <v>1249</v>
+        <v>3324</v>
       </c>
       <c r="I23" s="7">
-        <v>1300101</v>
+        <v>3530047</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="M23" s="7">
-        <v>2992</v>
+        <v>6521</v>
       </c>
       <c r="N23" s="7">
-        <v>3145737</v>
+        <v>6888678</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,10 +4673,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>1766</v>
+        <v>3220</v>
       </c>
       <c r="D24" s="7">
-        <v>1869688</v>
+        <v>3382683</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4832,10 +4688,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>1254</v>
+        <v>3329</v>
       </c>
       <c r="I24" s="7">
-        <v>1304830</v>
+        <v>3534776</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4847,10 +4703,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>3020</v>
+        <v>6549</v>
       </c>
       <c r="N24" s="7">
-        <v>3174518</v>
+        <v>6917459</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4864,7 +4720,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
